--- a/biology/Zoologie/Aphia_minuta/Aphia_minuta.xlsx
+++ b/biology/Zoologie/Aphia_minuta/Aphia_minuta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphia minuta, communément appelé Gobie transparent, est une espèce de gobies, l'unique espèce du genre Aphia.
 Il est traditionnellement consommé en friture sur la côte méditerranéenne de l'Espagne sous le nom de Chanquete, et y est très recherché.
@@ -512,9 +524,11 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il mesure jusqu'à 7,9 cm pour le mâle[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il mesure jusqu'à 7,9 cm pour le mâle.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Aphia minuta admet de nombreux noms scientifiques synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Aphia minuta admet de nombreux noms scientifiques synonymes :
 Aphia meridionalis Risso, 1827
 Aphya minuta (Risso, 1810)
 Aphya pellucida (Nardo, 1824)
